--- a/error_codes.xlsx
+++ b/error_codes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tecfrac/personal/station/station-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD8B472E-6080-2F4D-89D5-3CA4A67EBEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0EDB38-D123-874C-9ABE-6062583F4228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{F529DE64-54C4-6045-BBCA-77886A335A1C}"/>
+    <workbookView xWindow="2500" yWindow="9180" windowWidth="28040" windowHeight="17440" xr2:uid="{F529DE64-54C4-6045-BBCA-77886A335A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>code</t>
   </si>
@@ -184,6 +184,72 @@
   </si>
   <si>
     <t>Username Already exists.</t>
+  </si>
+  <si>
+    <t>رقم اللوحة غير صحيح.</t>
+  </si>
+  <si>
+    <t>رمز اللوحة غير صالح.</t>
+  </si>
+  <si>
+    <t>السيارة موجودة.</t>
+  </si>
+  <si>
+    <t>كمية التعبئة غير صالح.</t>
+  </si>
+  <si>
+    <t>سيارة غير صالحة.</t>
+  </si>
+  <si>
+    <t>غير مسموح بتعبئة السيارة.</t>
+  </si>
+  <si>
+    <t>لم يتم العثور على السيارة.</t>
+  </si>
+  <si>
+    <t>الرجاد الدخول على الحساب من جديد.</t>
+  </si>
+  <si>
+    <t>خطأ في اسم المستخدم أو كلمة مرور.</t>
+  </si>
+  <si>
+    <t>المستخدم غير نشط.</t>
+  </si>
+  <si>
+    <t>حدث شيء الرجاء الاتصال بالدعم.</t>
+  </si>
+  <si>
+    <t>موقع غير صحيح.</t>
+  </si>
+  <si>
+    <t>المحطة موجودة.</t>
+  </si>
+  <si>
+    <t>رقم الهاتف غير صحيح.</t>
+  </si>
+  <si>
+    <t>اسم المحطة غير صحيح.</t>
+  </si>
+  <si>
+    <t>وصف الموقع غير صحيح.</t>
+  </si>
+  <si>
+    <t>محطة غير صحيح.</t>
+  </si>
+  <si>
+    <t>المحطة غير موجودة.</t>
+  </si>
+  <si>
+    <t>اسم غير صالح.</t>
+  </si>
+  <si>
+    <t>اسم مستخدم غير صحيح.</t>
+  </si>
+  <si>
+    <t>رمز مرور خاطئ.</t>
+  </si>
+  <si>
+    <t>اسم المستخدم موجود بالفعل.</t>
   </si>
 </sst>
 </file>
@@ -543,19 +609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80114A46-F6B7-574A-B1EB-E20988F1180F}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,236 +633,556 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("insert into localization (`code`,language,`value`) values('",A2,"','en','",B2,"');")</f>
+        <v>insert into localization (`code`,language,`value`) values('invalid.plate.number','en','Invalid Plate Number.');</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("insert into localization (`code`,language,`value`) values('",A2,"','en','",C2,"');")</f>
+        <v>insert into localization (`code`,language,`value`) values('invalid.plate.number','en','رقم اللوحة غير صحيح.');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:F30" si="0">_xlfn.CONCAT("insert into localization (`code`,language,`value`) values('",A3,"','en','",B3,"');")</f>
+        <v>insert into localization (`code`,language,`value`) values('invalid.plate.code','en','Invalid Plate Code.');</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F30" si="1">_xlfn.CONCAT("insert into localization (`code`,language,`value`) values('",A3,"','en','",C3,"');")</f>
+        <v>insert into localization (`code`,language,`value`) values('invalid.plate.code','en','رمز اللوحة غير صالح.');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('car.already.exsts','en','Car Already Exists.');</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('car.already.exsts','en','السيارة موجودة.');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.filling.amount','en','Invalid Filling Amount.');</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.filling.amount','en','كمية التعبئة غير صالح.');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.car','en','Invalid Car.');</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.car','en','سيارة غير صالحة.');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.car.id','en','Invalid Car.');</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.car.id','en','سيارة غير صالحة.');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('filling.not.allowed','en','Car Not Allowed For Filling.');</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('filling.not.allowed','en','غير مسموح بتعبئة السيارة.');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('car.not.found','en','Car Not found.');</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('car.not.found','en','لم يتم العثور على السيارة.');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('session.not_valid','en','Session Expired. Please Login Again.');</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('session.not_valid','en','الرجاد الدخول على الحساب من جديد.');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('session.expired','en','Session Expired. Please Login Again.');</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('session.expired','en','الرجاد الدخول على الحساب من جديد.');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('device.not_active','en','Session Expired. Please Login Again.');</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('device.not_active','en','الرجاد الدخول على الحساب من جديد.');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('device.identifier_empty','en','Session Expired. Please Login Again.');</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('device.identifier_empty','en','الرجاد الدخول على الحساب من جديد.');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.password.empty','en','Invalid Username Or Password.');</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.password.empty','en','خطأ في اسم المستخدم أو كلمة مرور.');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.username_not_found','en','Invalid Username Or Password.');</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.username_not_found','en','خطأ في اسم المستخدم أو كلمة مرور.');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.wrong_password','en','Invalid Username Or Password.');</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.wrong_password','en','خطأ في اسم المستخدم أو كلمة مرور.');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.not_valid_login','en','Invalid Username Or Password.');</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.not_valid_login','en','خطأ في اسم المستخدم أو كلمة مرور.');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.user_not_active','en','User Is Inactive.');</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('auth.user_not_active','en','المستخدم غير نشط.');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>500</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('500','en','Something Has Occurred Please contact Support.');</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('500','en','حدث شيء الرجاء الاتصال بالدعم.');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.location','en','Invalid Location.');</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.location','en','موقع غير صحيح.');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.location.description','en','Invalid Location Description.');</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.location.description','en','وصف الموقع غير صحيح.');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.station.name','en','Invalid Station Name.');</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.station.name','en','اسم المحطة غير صحيح.');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('station.already.exists','en','Station Already Exists.');</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('station.already.exists','en','المحطة موجودة.');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.phone.number','en','Invalid Phone Number.');</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.phone.number','en','رقم الهاتف غير صحيح.');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.station','en','Invalid Station.');</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.station','en','محطة غير صحيح.');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('station.not.exists','en','Station Not Found.');</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('station.not.exists','en','المحطة غير موجودة.');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.user.name','en','Invalid Name.');</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.user.name','en','اسم غير صالح.');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.username','en','Invalid Username.');</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.username','en','اسم مستخدم غير صحيح.');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.password','en','Invalid Password.');</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('invalid.password','en','رمز مرور خاطئ.');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into localization (`code`,language,`value`) values('username.already.exists','en','Username Already exists.');</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into localization (`code`,language,`value`) values('username.already.exists','en','اسم المستخدم موجود بالفعل.');</v>
       </c>
     </row>
   </sheetData>
